--- a/resources/国家或地区代码ISO3166标准.xlsx
+++ b/resources/国家或地区代码ISO3166标准.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiping/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaiping/IdeaProjects/open/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3ABEA8-8258-8F44-AE5C-E33C6317EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA19BFE-2398-D048-B827-3F5C561E1AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15900" xr2:uid="{6A6E1652-C88D-E744-9BEC-F7945FAC5F28}"/>
   </bookViews>
@@ -3894,11 +3894,12 @@
   <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
